--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
   <si>
     <t>mls_teams</t>
   </si>
@@ -58,6 +58,33 @@
   </si>
   <si>
     <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
   </si>
   <si>
     <t>1</t>
@@ -416,13 +443,40 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>22.0</v>
@@ -464,15 +518,42 @@
         <v>22.0</v>
       </c>
       <c r="P2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C3" t="n">
         <v>23.0</v>
@@ -516,13 +597,40 @@
       <c r="P3" t="n">
         <v>9.0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -564,15 +672,42 @@
         <v>24.0</v>
       </c>
       <c r="P4" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -616,13 +751,40 @@
       <c r="P5" t="n">
         <v>11.0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -666,13 +828,40 @@
       <c r="P6" t="n">
         <v>7.0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -716,13 +905,40 @@
       <c r="P7" t="n">
         <v>15.0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -766,13 +982,40 @@
       <c r="P8" t="n">
         <v>16.0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -816,13 +1059,40 @@
       <c r="P9" t="n">
         <v>2.0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -866,13 +1136,40 @@
       <c r="P10" t="n">
         <v>25.0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -916,13 +1213,40 @@
       <c r="P11" t="n">
         <v>26.0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -966,13 +1290,40 @@
       <c r="P12" t="n">
         <v>1.0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -1016,13 +1367,40 @@
       <c r="P13" t="n">
         <v>5.0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -1066,13 +1444,40 @@
       <c r="P14" t="n">
         <v>8.0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -1116,13 +1521,40 @@
       <c r="P15" t="n">
         <v>6.0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>14.0</v>
@@ -1164,15 +1596,42 @@
         <v>20.0</v>
       </c>
       <c r="P16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R16" t="n">
         <v>19.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -1216,13 +1675,40 @@
       <c r="P17" t="n">
         <v>29.0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -1266,13 +1752,40 @@
       <c r="P18" t="n">
         <v>10.0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C19" t="n">
         <v>25.0</v>
@@ -1316,13 +1829,40 @@
       <c r="P19" t="n">
         <v>4.0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -1364,15 +1904,42 @@
         <v>18.0</v>
       </c>
       <c r="P20" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
         <v>17.0</v>
@@ -1416,13 +1983,40 @@
       <c r="P21" t="n">
         <v>17.0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -1464,15 +2058,42 @@
         <v>23.0</v>
       </c>
       <c r="P22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C23" t="n">
         <v>26.0</v>
@@ -1516,13 +2137,40 @@
       <c r="P23" t="n">
         <v>12.0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -1566,13 +2214,40 @@
       <c r="P24" t="n">
         <v>3.0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C25" t="n">
         <v>27.0</v>
@@ -1616,13 +2291,40 @@
       <c r="P25" t="n">
         <v>18.0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -1666,13 +2368,40 @@
       <c r="P26" t="n">
         <v>27.0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -1716,13 +2445,40 @@
       <c r="P27" t="n">
         <v>28.0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
         <v>20.0</v>
@@ -1764,15 +2520,42 @@
         <v>19.0</v>
       </c>
       <c r="P28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="R28" t="n">
         <v>22.0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C29" t="n">
         <v>21.0</v>
@@ -1816,13 +2599,40 @@
       <c r="P29" t="n">
         <v>13.0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C30" t="n">
         <v>29.0</v>
@@ -1865,6 +2675,33 @@
       </c>
       <c r="P30" t="n">
         <v>14.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +2720,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1897,13 +2734,16 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1917,13 +2757,16 @@
       <c r="F2" t="n">
         <v>11.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1935,15 +2778,18 @@
         <v>11.0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
         <v>16.0</v>
@@ -1955,15 +2801,18 @@
         <v>22.0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1975,15 +2824,18 @@
         <v>12.0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -1995,15 +2847,18 @@
         <v>13.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -2015,15 +2870,18 @@
         <v>14.0</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
         <v>18.0</v>
@@ -2037,13 +2895,16 @@
       <c r="F8" t="n">
         <v>28.0</v>
       </c>
+      <c r="G8" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -2055,15 +2916,18 @@
         <v>23.0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2075,15 +2939,18 @@
         <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -2095,15 +2962,18 @@
         <v>8.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -2115,15 +2985,18 @@
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
         <v>20.0</v>
@@ -2135,15 +3008,18 @@
         <v>24.0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -2155,15 +3031,18 @@
         <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C15" t="n">
         <v>21.0</v>
@@ -2175,15 +3054,18 @@
         <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -2195,15 +3077,18 @@
         <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -2215,15 +3100,18 @@
         <v>15.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -2235,15 +3123,18 @@
         <v>16.0</v>
       </c>
       <c r="F18" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -2257,13 +3148,16 @@
       <c r="F19" t="n">
         <v>12.0</v>
       </c>
+      <c r="G19" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" t="n">
         <v>23.0</v>
@@ -2275,15 +3169,18 @@
         <v>21.0</v>
       </c>
       <c r="F20" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -2295,15 +3192,18 @@
         <v>1.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C22" t="n">
         <v>11.0</v>
@@ -2315,15 +3215,18 @@
         <v>10.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C23" t="n">
         <v>24.0</v>
@@ -2335,15 +3238,18 @@
         <v>17.0</v>
       </c>
       <c r="F23" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C24" t="n">
         <v>25.0</v>
@@ -2357,13 +3263,16 @@
       <c r="F24" t="n">
         <v>26.0</v>
       </c>
+      <c r="G24" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C25" t="n">
         <v>26.0</v>
@@ -2375,15 +3284,18 @@
         <v>26.0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C26" t="n">
         <v>12.0</v>
@@ -2395,15 +3307,18 @@
         <v>5.0</v>
       </c>
       <c r="F26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C27" t="n">
         <v>27.0</v>
@@ -2417,13 +3332,16 @@
       <c r="F27" t="n">
         <v>27.0</v>
       </c>
+      <c r="G27" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C28" t="n">
         <v>13.0</v>
@@ -2435,15 +3353,18 @@
         <v>6.0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C29" t="n">
         <v>28.0</v>
@@ -2456,6 +3377,9 @@
       </c>
       <c r="F29" t="n">
         <v>17.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21.0</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/Roundmatrix.xlsx
+++ b/Divisions/Roundmatrix.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>mls_teams</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
   </si>
   <si>
     <t>1</t>
@@ -470,13 +476,19 @@
       <c r="Y1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>22.0</v>
@@ -545,15 +557,21 @@
         <v>22.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
         <v>23.0</v>
@@ -622,15 +640,21 @@
         <v>14.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
         <v>9.0</v>
@@ -701,13 +725,19 @@
       <c r="Y4" t="n">
         <v>19.0</v>
       </c>
+      <c r="Z4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -776,15 +806,21 @@
         <v>11.0</v>
       </c>
       <c r="Y5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -853,15 +889,21 @@
         <v>6.0</v>
       </c>
       <c r="Y6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -930,15 +972,21 @@
         <v>23.0</v>
       </c>
       <c r="Y7" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="n">
         <v>10.0</v>
@@ -1007,15 +1055,21 @@
         <v>15.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
         <v>11.0</v>
@@ -1084,15 +1138,21 @@
         <v>1.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -1161,15 +1221,21 @@
         <v>20.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="n">
         <v>12.0</v>
@@ -1238,15 +1304,21 @@
         <v>25.0</v>
       </c>
       <c r="Y11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1315,15 +1387,21 @@
         <v>2.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="n">
         <v>13.0</v>
@@ -1394,13 +1472,19 @@
       <c r="Y13" t="n">
         <v>3.0</v>
       </c>
+      <c r="Z13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" t="n">
         <v>6.0</v>
@@ -1469,15 +1553,21 @@
         <v>4.0</v>
       </c>
       <c r="Y14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
         <v>7.0</v>
@@ -1546,15 +1636,21 @@
         <v>17.0</v>
       </c>
       <c r="Y15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
         <v>14.0</v>
@@ -1623,15 +1719,21 @@
         <v>21.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="n">
         <v>24.0</v>
@@ -1700,15 +1802,21 @@
         <v>26.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -1777,15 +1885,21 @@
         <v>8.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>25.0</v>
@@ -1854,15 +1968,21 @@
         <v>9.0</v>
       </c>
       <c r="Y19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA19" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
         <v>16.0</v>
@@ -1931,15 +2051,21 @@
         <v>16.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" t="n">
         <v>17.0</v>
@@ -2008,15 +2134,21 @@
         <v>28.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="n">
         <v>8.0</v>
@@ -2085,15 +2217,21 @@
         <v>10.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="n">
         <v>26.0</v>
@@ -2162,15 +2300,21 @@
         <v>7.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="n">
         <v>18.0</v>
@@ -2239,15 +2383,21 @@
         <v>5.0</v>
       </c>
       <c r="Y24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
         <v>27.0</v>
@@ -2316,15 +2466,21 @@
         <v>13.0</v>
       </c>
       <c r="Y25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" t="n">
         <v>28.0</v>
@@ -2395,13 +2551,19 @@
       <c r="Y26" t="n">
         <v>29.0</v>
       </c>
+      <c r="Z26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" t="n">
         <v>19.0</v>
@@ -2470,15 +2632,21 @@
         <v>24.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="n">
         <v>20.0</v>
@@ -2547,15 +2715,21 @@
         <v>27.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" t="n">
         <v>21.0</v>
@@ -2624,15 +2798,21 @@
         <v>18.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" t="n">
         <v>29.0</v>
@@ -2701,7 +2881,13 @@
         <v>12.0</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2906,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2737,13 +2923,28 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -2760,13 +2961,28 @@
       <c r="G2" t="n">
         <v>7.0</v>
       </c>
+      <c r="H2" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -2783,13 +2999,28 @@
       <c r="G3" t="n">
         <v>15.0</v>
       </c>
+      <c r="H3" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
         <v>16.0</v>
@@ -2804,15 +3035,30 @@
         <v>18.0</v>
       </c>
       <c r="G4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>22.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -2827,15 +3073,30 @@
         <v>19.0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
         <v>14.0</v>
@@ -2852,13 +3113,28 @@
       <c r="G6" t="n">
         <v>9.0</v>
       </c>
+      <c r="H6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
         <v>17.0</v>
@@ -2875,13 +3151,28 @@
       <c r="G7" t="n">
         <v>11.0</v>
       </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
         <v>18.0</v>
@@ -2898,13 +3189,28 @@
       <c r="G8" t="n">
         <v>28.0</v>
       </c>
+      <c r="H8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" t="n">
         <v>19.0</v>
@@ -2919,15 +3225,30 @@
         <v>25.0</v>
       </c>
       <c r="G9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -2944,13 +3265,28 @@
       <c r="G10" t="n">
         <v>16.0</v>
       </c>
+      <c r="H10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -2967,13 +3303,28 @@
       <c r="G11" t="n">
         <v>12.0</v>
       </c>
+      <c r="H11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
         <v>6.0</v>
@@ -2990,13 +3341,28 @@
       <c r="G12" t="n">
         <v>4.0</v>
       </c>
+      <c r="H12" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" t="n">
         <v>20.0</v>
@@ -3011,15 +3377,30 @@
         <v>23.0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" t="n">
         <v>7.0</v>
@@ -3036,13 +3417,28 @@
       <c r="G14" t="n">
         <v>1.0</v>
       </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" t="n">
         <v>21.0</v>
@@ -3059,13 +3455,28 @@
       <c r="G15" t="n">
         <v>17.0</v>
       </c>
+      <c r="H15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" t="n">
         <v>8.0</v>
@@ -3082,13 +3493,28 @@
       <c r="G16" t="n">
         <v>13.0</v>
       </c>
+      <c r="H16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
         <v>9.0</v>
@@ -3105,13 +3531,28 @@
       <c r="G17" t="n">
         <v>5.0</v>
       </c>
+      <c r="H17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
         <v>22.0</v>
@@ -3128,13 +3569,28 @@
       <c r="G18" t="n">
         <v>10.0</v>
       </c>
+      <c r="H18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" t="n">
         <v>10.0</v>
@@ -3151,13 +3607,28 @@
       <c r="G19" t="n">
         <v>18.0</v>
       </c>
+      <c r="H19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C20" t="n">
         <v>23.0</v>
@@ -3174,13 +3645,28 @@
       <c r="G20" t="n">
         <v>20.0</v>
       </c>
+      <c r="H20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C21" t="n">
         <v>15.0</v>
@@ -3197,13 +3683,28 @@
       <c r="G21" t="n">
         <v>6.0</v>
       </c>
+      <c r="H21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C22" t="n">
         <v>11.0</v>
@@ -3220,13 +3721,28 @@
       <c r="G22" t="n">
         <v>8.0</v>
       </c>
+      <c r="H22" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C23" t="n">
         <v>24.0</v>
@@ -3243,13 +3759,28 @@
       <c r="G23" t="n">
         <v>19.0</v>
       </c>
+      <c r="H23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" t="n">
         <v>25.0</v>
@@ -3266,13 +3797,28 @@
       <c r="G24" t="n">
         <v>27.0</v>
       </c>
+      <c r="H24" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C25" t="n">
         <v>26.0</v>
@@ -3289,13 +3835,28 @@
       <c r="G25" t="n">
         <v>14.0</v>
       </c>
+      <c r="H25" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C26" t="n">
         <v>12.0</v>
@@ -3312,13 +3873,28 @@
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
+      <c r="H26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" t="n">
         <v>27.0</v>
@@ -3333,15 +3909,30 @@
         <v>27.0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C28" t="n">
         <v>13.0</v>
@@ -3358,13 +3949,28 @@
       <c r="G28" t="n">
         <v>3.0</v>
       </c>
+      <c r="H28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" t="n">
         <v>28.0</v>
@@ -3379,7 +3985,22 @@
         <v>17.0</v>
       </c>
       <c r="G29" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
